--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value132.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value132.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9429910524642925</v>
+        <v>0.7095779180526733</v>
       </c>
       <c r="B1">
-        <v>1.705847904731909</v>
+        <v>2.765387296676636</v>
       </c>
       <c r="C1">
-        <v>3.583680339004234</v>
+        <v>3.949029207229614</v>
       </c>
       <c r="D1">
-        <v>2.579824602443372</v>
+        <v>1.372920393943787</v>
       </c>
       <c r="E1">
-        <v>1.057661617536065</v>
+        <v>0.7773333191871643</v>
       </c>
     </row>
   </sheetData>
